--- a/Documents/Documentacion/CodigosProductos.xlsx
+++ b/Documents/Documentacion/CodigosProductos.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Archivos de programa\Github\PetSitting\Documents\Documentacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Liz Jimenez\Documents\GitHub\PetSitting\Documents\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C53B2DEA-F2A4-40FD-B5B5-9ACB4DEF28D4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{0050E879-F14C-4995-BA7A-8D09AFCCBFAD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Mejoras Pendientes" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t>Chico</t>
   </si>
@@ -298,12 +298,24 @@
   </si>
   <si>
     <t>SDG4078</t>
+  </si>
+  <si>
+    <t>Mejora</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>Validaciones en mascota</t>
+  </si>
+  <si>
+    <t>Estado de productos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -458,13 +470,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -474,15 +495,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -796,30 +809,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48B5FB01-60B5-4F9B-B8F0-67D6B5E4FE17}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="8"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1159,4 +1172,40 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Documents/Documentacion/CodigosProductos.xlsx
+++ b/Documents/Documentacion/CodigosProductos.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Liz Jimenez\Documents\GitHub\PetSitting\Documents\Documentacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anton\Documents\GitHub\PetSitting\Documents\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Mejoras Pendientes" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <si>
     <t>Chico</t>
   </si>
@@ -310,12 +311,36 @@
   </si>
   <si>
     <t>Estado de productos</t>
+  </si>
+  <si>
+    <t>Validar solo arduino</t>
+  </si>
+  <si>
+    <t>Materiales</t>
+  </si>
+  <si>
+    <t>4 leds inflarrojos</t>
+  </si>
+  <si>
+    <t>2 transistores 2n2222a</t>
+  </si>
+  <si>
+    <t>caja</t>
+  </si>
+  <si>
+    <t>termar fit</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>cinta doble tape</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -486,6 +511,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -495,7 +521,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -812,18 +837,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -1176,9 +1201,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -1188,10 +1213,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="9" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1203,6 +1228,87 @@
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9">
+        <f>SUM(C2:C6)</f>
+        <v>111</v>
+      </c>
+      <c r="D9">
+        <f>C9/4</f>
+        <v>27.75</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Documentacion/CodigosProductos.xlsx
+++ b/Documents/Documentacion/CodigosProductos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
     <t>Chico</t>
   </si>
@@ -310,6 +310,9 @@
   </si>
   <si>
     <t>Estado de productos</t>
+  </si>
+  <si>
+    <t>generar codigo de barras con el codigo del sistema</t>
   </si>
 </sst>
 </file>
@@ -486,6 +489,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -495,7 +499,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -812,18 +815,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -1176,10 +1179,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1188,10 +1191,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="9" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1203,6 +1206,11 @@
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
